--- a/site-dsidd/docs/references/references_dsidd_v2.xlsx
+++ b/site-dsidd/docs/references/references_dsidd_v2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSIDD3\d-sidd Dropbox\Equipe\sites internet\Site rmarkdown\site-dsidd\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnau\d-sidd Dropbox\Equipe\sites internet\d-sidd.github.io\site-dsidd\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A2A8E-5AD0-4474-AF3E-49D6404BBC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130D71A8-2BCA-4AC3-BF84-41C029728FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A1639DB-56E8-489A-8363-79F7F85173AB}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A1639DB-56E8-489A-8363-79F7F85173AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$T$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$T$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="154">
   <si>
     <t>Année d’exécution</t>
   </si>
@@ -494,13 +494,23 @@
   </si>
   <si>
     <t>Mission de structuration des indicateurs des Plans de Protection de l’Atmosphère de Montpellier, Nîmes et Toulouse</t>
+  </si>
+  <si>
+    <t>Fédération des CAE</t>
+  </si>
+  <si>
+    <t>Réalisation d'une étude d'impact socio-économique des CAE en France</t>
+  </si>
+  <si>
+    <t>2025 (en cours)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -555,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -563,6 +573,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -878,25 +889,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B3B7FE-E50F-4A1F-B29E-52CC043F3381}">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="22.59765625" customWidth="1"/>
     <col min="4" max="4" width="71" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.73046875" customWidth="1"/>
+    <col min="18" max="18" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -958,7 +969,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -991,7 +1002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1057,7 +1068,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1090,7 +1101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1123,7 +1134,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1156,7 +1167,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1189,7 +1200,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1218,7 +1229,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1250,7 +1261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1286,7 +1297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1355,7 +1366,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1421,7 +1432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1454,7 +1465,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1513,7 +1524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1549,7 +1560,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1585,7 +1596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1618,7 +1629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1651,7 +1662,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1684,7 +1695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1720,7 +1731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1753,7 +1764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1786,7 +1797,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1828,7 +1839,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1859,6 +1870,9 @@
       <c r="J28" t="s">
         <v>42</v>
       </c>
+      <c r="M28" t="s">
+        <v>90</v>
+      </c>
       <c r="N28" t="s">
         <v>90</v>
       </c>
@@ -1875,7 +1889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1905,7 +1919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1971,7 +1985,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2001,7 +2015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2031,7 +2045,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2057,14 +2071,11 @@
       <c r="J34" t="s">
         <v>42</v>
       </c>
-      <c r="O34" t="s">
-        <v>90</v>
-      </c>
       <c r="P34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2093,7 +2104,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2123,7 +2134,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2159,7 +2170,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2192,7 +2203,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2222,7 +2233,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2252,7 +2263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2282,7 +2293,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2312,7 +2323,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2325,8 +2336,8 @@
       <c r="D43" t="s">
         <v>104</v>
       </c>
-      <c r="E43" t="s">
-        <v>105</v>
+      <c r="E43">
+        <v>2024</v>
       </c>
       <c r="F43">
         <v>20245</v>
@@ -2362,7 +2373,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2403,7 +2414,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2442,7 +2453,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2486,7 +2497,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -2518,7 +2529,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2551,7 +2562,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2586,7 +2597,46 @@
         <v>45657</v>
       </c>
     </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50">
+        <v>20251</v>
+      </c>
+      <c r="G50" s="5">
+        <v>82500</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" t="s">
+        <v>90</v>
+      </c>
+      <c r="N50" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>45731</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:T49" xr:uid="{D9B3B7FE-E50F-4A1F-B29E-52CC043F3381}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I34">
     <sortCondition ref="E2:E34"/>
   </sortState>
